--- a/testdata/FCfiles/qa/ManageProfile.xlsx
+++ b/testdata/FCfiles/qa/ManageProfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02425D8E-47AF-4580-B9B8-85DDCB65058D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1FF8C-1FD4-40E8-AF40-DDD27FBF1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, UPS</t>
+    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, UPS, FragilePAK</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/FCfiles/qa/ManageProfile.xlsx
+++ b/testdata/FCfiles/qa/ManageProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1FF8C-1FD4-40E8-AF40-DDD27FBF1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B318F63-F587-47C6-8937-B0D876B4DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>

--- a/testdata/FCfiles/qa/ManageProfile.xlsx
+++ b/testdata/FCfiles/qa/ManageProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B318F63-F587-47C6-8937-B0D876B4DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD4109-3C31-4EB3-9E2B-D62F480436ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, UPS, FragilePAK</t>
+    <t>ABF Freight, Ceva, FC Test Carrier, UPS, FragilePAK</t>
   </si>
 </sst>
 </file>
